--- a/cancerdados.xlsx
+++ b/cancerdados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="40">
   <si>
     <t>no-recurrence-events</t>
   </si>
@@ -124,6 +124,27 @@
   <si>
     <t>24-26</t>
   </si>
+  <si>
+    <t>010-14</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>05-09</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>12-14</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +182,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,8 +865,8 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1">
-        <v>41913</v>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -1484,8 +1505,8 @@
       <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="1">
-        <v>41913</v>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1516,8 +1537,8 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="1">
-        <v>41913</v>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1548,8 +1569,8 @@
       <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="1">
-        <v>41913</v>
+      <c r="D36" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1676,8 +1697,8 @@
       <c r="C40" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="1">
-        <v>41913</v>
+      <c r="D40" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -1804,8 +1825,8 @@
       <c r="C44" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="2">
-        <v>44079</v>
+      <c r="D44" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -1836,8 +1857,8 @@
       <c r="C45" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="1">
-        <v>41913</v>
+      <c r="D45" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -2284,8 +2305,8 @@
       <c r="C59" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="2">
-        <v>44079</v>
+      <c r="D59" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2412,8 +2433,8 @@
       <c r="C63" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="1">
-        <v>41913</v>
+      <c r="D63" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -2540,8 +2561,8 @@
       <c r="C67" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="1">
-        <v>41913</v>
+      <c r="D67" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -2700,8 +2721,8 @@
       <c r="C72" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="1">
-        <v>41913</v>
+      <c r="D72" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
@@ -2828,8 +2849,8 @@
       <c r="C76" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="2">
-        <v>44079</v>
+      <c r="D76" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -2860,8 +2881,8 @@
       <c r="C77" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="1">
-        <v>41913</v>
+      <c r="D77" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -2892,8 +2913,8 @@
       <c r="C78" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="1">
-        <v>41913</v>
+      <c r="D78" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -3020,8 +3041,8 @@
       <c r="C82" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="1">
-        <v>41913</v>
+      <c r="D82" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E82" t="s">
         <v>4</v>
@@ -3052,8 +3073,8 @@
       <c r="C83" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="1">
-        <v>41913</v>
+      <c r="D83" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -3468,8 +3489,8 @@
       <c r="C96" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="1">
-        <v>41913</v>
+      <c r="D96" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
@@ -3788,8 +3809,8 @@
       <c r="C106" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="1">
-        <v>41913</v>
+      <c r="D106" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
@@ -4076,8 +4097,8 @@
       <c r="C115" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="1">
-        <v>41913</v>
+      <c r="D115" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E115" t="s">
         <v>4</v>
@@ -4236,8 +4257,8 @@
       <c r="C120" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="1">
-        <v>41913</v>
+      <c r="D120" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
@@ -4428,8 +4449,8 @@
       <c r="C126" t="s">
         <v>13</v>
       </c>
-      <c r="D126" s="1">
-        <v>41913</v>
+      <c r="D126" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E126" t="s">
         <v>4</v>
@@ -4460,8 +4481,8 @@
       <c r="C127" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="1">
-        <v>41913</v>
+      <c r="D127" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E127" t="s">
         <v>4</v>
@@ -4495,8 +4516,8 @@
       <c r="D128" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="2">
-        <v>44049</v>
+      <c r="E128" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F128" t="s">
         <v>27</v>
@@ -4527,8 +4548,8 @@
       <c r="D129" t="s">
         <v>19</v>
       </c>
-      <c r="E129" s="2">
-        <v>44049</v>
+      <c r="E129" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F129" t="s">
         <v>27</v>
@@ -4591,8 +4612,8 @@
       <c r="D131" t="s">
         <v>24</v>
       </c>
-      <c r="E131" s="2">
-        <v>44144</v>
+      <c r="E131" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F131" t="s">
         <v>27</v>
@@ -4623,8 +4644,8 @@
       <c r="D132" t="s">
         <v>24</v>
       </c>
-      <c r="E132" s="2">
-        <v>44144</v>
+      <c r="E132" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F132" t="s">
         <v>27</v>
@@ -4655,8 +4676,8 @@
       <c r="D133" t="s">
         <v>23</v>
       </c>
-      <c r="E133" s="2">
-        <v>43954</v>
+      <c r="E133" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F133" t="s">
         <v>27</v>
@@ -4687,8 +4708,8 @@
       <c r="D134" t="s">
         <v>3</v>
       </c>
-      <c r="E134" s="2">
-        <v>44049</v>
+      <c r="E134" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
@@ -4783,8 +4804,8 @@
       <c r="D137" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="2">
-        <v>43954</v>
+      <c r="E137" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
@@ -4815,8 +4836,8 @@
       <c r="D138" t="s">
         <v>23</v>
       </c>
-      <c r="E138" s="2">
-        <v>43954</v>
+      <c r="E138" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -4844,10 +4865,10 @@
       <c r="C139" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="2">
-        <v>44079</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="D139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F139" t="s">
@@ -4879,7 +4900,7 @@
       <c r="D140" t="s">
         <v>23</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F140" t="s">
@@ -4911,7 +4932,7 @@
       <c r="D141" t="s">
         <v>3</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F141" t="s">
@@ -4943,8 +4964,8 @@
       <c r="D142" t="s">
         <v>23</v>
       </c>
-      <c r="E142" s="2">
-        <v>43954</v>
+      <c r="E142" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F142" t="s">
         <v>27</v>
@@ -4975,8 +4996,8 @@
       <c r="D143" t="s">
         <v>9</v>
       </c>
-      <c r="E143" s="2">
-        <v>43954</v>
+      <c r="E143" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F143" t="s">
         <v>27</v>
@@ -5004,8 +5025,8 @@
       <c r="C144" t="s">
         <v>13</v>
       </c>
-      <c r="D144" s="1">
-        <v>41913</v>
+      <c r="D144" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E144" t="s">
         <v>4</v>
@@ -5071,8 +5092,8 @@
       <c r="D146" t="s">
         <v>28</v>
       </c>
-      <c r="E146" s="2">
-        <v>44049</v>
+      <c r="E146" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F146" t="s">
         <v>27</v>
@@ -5167,8 +5188,8 @@
       <c r="D149" t="s">
         <v>3</v>
       </c>
-      <c r="E149" s="2">
-        <v>43954</v>
+      <c r="E149" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F149" t="s">
         <v>27</v>
@@ -5199,7 +5220,7 @@
       <c r="D150" t="s">
         <v>9</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F150" t="s">
@@ -5231,7 +5252,7 @@
       <c r="D151" t="s">
         <v>3</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F151" t="s">
@@ -5263,7 +5284,7 @@
       <c r="D152" t="s">
         <v>19</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F152" t="s">
@@ -5295,8 +5316,8 @@
       <c r="D153" t="s">
         <v>3</v>
       </c>
-      <c r="E153" s="2">
-        <v>43954</v>
+      <c r="E153" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F153" t="s">
         <v>27</v>
@@ -5327,7 +5348,7 @@
       <c r="D154" t="s">
         <v>24</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F154" t="s">
@@ -5359,7 +5380,7 @@
       <c r="D155" t="s">
         <v>14</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F155" t="s">
@@ -5391,7 +5412,7 @@
       <c r="D156" t="s">
         <v>14</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F156" t="s">
@@ -5423,8 +5444,8 @@
       <c r="D157" t="s">
         <v>23</v>
       </c>
-      <c r="E157" s="2">
-        <v>43954</v>
+      <c r="E157" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F157" t="s">
         <v>5</v>
@@ -5455,8 +5476,8 @@
       <c r="D158" t="s">
         <v>19</v>
       </c>
-      <c r="E158" s="2">
-        <v>43954</v>
+      <c r="E158" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F158" t="s">
         <v>27</v>
@@ -5615,8 +5636,8 @@
       <c r="D163" t="s">
         <v>3</v>
       </c>
-      <c r="E163" s="2">
-        <v>43954</v>
+      <c r="E163" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F163" t="s">
         <v>27</v>
@@ -5644,10 +5665,10 @@
       <c r="C164" t="s">
         <v>13</v>
       </c>
-      <c r="D164" s="1">
-        <v>41913</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="D164" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F164" t="s">
@@ -5679,8 +5700,8 @@
       <c r="D165" t="s">
         <v>19</v>
       </c>
-      <c r="E165" s="2">
-        <v>43954</v>
+      <c r="E165" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F165" t="s">
         <v>29</v>
@@ -5711,8 +5732,8 @@
       <c r="D166" t="s">
         <v>19</v>
       </c>
-      <c r="E166" s="2">
-        <v>43954</v>
+      <c r="E166" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F166" t="s">
         <v>29</v>
@@ -5743,8 +5764,8 @@
       <c r="D167" t="s">
         <v>9</v>
       </c>
-      <c r="E167" s="2">
-        <v>43954</v>
+      <c r="E167" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F167" t="s">
         <v>5</v>
@@ -5775,8 +5796,8 @@
       <c r="D168" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="2">
-        <v>43954</v>
+      <c r="E168" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F168" t="s">
         <v>5</v>
@@ -5807,7 +5828,7 @@
       <c r="D169" t="s">
         <v>23</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F169" t="s">
@@ -5836,10 +5857,10 @@
       <c r="C170" t="s">
         <v>2</v>
       </c>
-      <c r="D170" s="1">
-        <v>41913</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="D170" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F170" t="s">
@@ -5871,7 +5892,7 @@
       <c r="D171" t="s">
         <v>3</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F171" t="s">
@@ -5903,8 +5924,8 @@
       <c r="D172" t="s">
         <v>9</v>
       </c>
-      <c r="E172" s="2">
-        <v>43954</v>
+      <c r="E172" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F172" t="s">
         <v>27</v>
@@ -5967,8 +5988,8 @@
       <c r="D174" t="s">
         <v>3</v>
       </c>
-      <c r="E174" s="2">
-        <v>44049</v>
+      <c r="E174" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F174" t="s">
         <v>27</v>
@@ -5999,8 +6020,8 @@
       <c r="D175" t="s">
         <v>9</v>
       </c>
-      <c r="E175" s="2">
-        <v>43954</v>
+      <c r="E175" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F175" t="s">
         <v>27</v>
@@ -6031,8 +6052,8 @@
       <c r="D176" t="s">
         <v>19</v>
       </c>
-      <c r="E176" s="2">
-        <v>43954</v>
+      <c r="E176" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F176" t="s">
         <v>27</v>
@@ -6124,8 +6145,8 @@
       <c r="C179" t="s">
         <v>13</v>
       </c>
-      <c r="D179" s="1">
-        <v>41913</v>
+      <c r="D179" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E179" t="s">
         <v>4</v>
@@ -6159,8 +6180,8 @@
       <c r="D180" t="s">
         <v>19</v>
       </c>
-      <c r="E180" s="2">
-        <v>43954</v>
+      <c r="E180" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F180" t="s">
         <v>5</v>
@@ -6319,8 +6340,8 @@
       <c r="D185" t="s">
         <v>3</v>
       </c>
-      <c r="E185" s="2">
-        <v>44144</v>
+      <c r="E185" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F185" t="s">
         <v>29</v>
@@ -6351,8 +6372,8 @@
       <c r="D186" t="s">
         <v>3</v>
       </c>
-      <c r="E186" s="2">
-        <v>44144</v>
+      <c r="E186" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F186" t="s">
         <v>29</v>
@@ -6383,8 +6404,8 @@
       <c r="D187" t="s">
         <v>9</v>
       </c>
-      <c r="E187" s="2">
-        <v>44049</v>
+      <c r="E187" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F187" t="s">
         <v>5</v>
@@ -6476,8 +6497,8 @@
       <c r="C190" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="1">
-        <v>41913</v>
+      <c r="D190" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E190" t="s">
         <v>4</v>
@@ -6543,8 +6564,8 @@
       <c r="D192" t="s">
         <v>14</v>
       </c>
-      <c r="E192" s="1">
-        <v>41974</v>
+      <c r="E192" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F192" t="s">
         <v>5</v>
@@ -6607,8 +6628,8 @@
       <c r="D194" t="s">
         <v>3</v>
       </c>
-      <c r="E194" s="2">
-        <v>44049</v>
+      <c r="E194" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F194" t="s">
         <v>27</v>
@@ -6636,8 +6657,8 @@
       <c r="C195" t="s">
         <v>2</v>
       </c>
-      <c r="D195" s="1">
-        <v>41913</v>
+      <c r="D195" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E195" t="s">
         <v>4</v>
@@ -6732,11 +6753,11 @@
       <c r="C198" t="s">
         <v>2</v>
       </c>
-      <c r="D198" s="1">
-        <v>41913</v>
-      </c>
-      <c r="E198" s="2">
-        <v>43954</v>
+      <c r="D198" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F198" t="s">
         <v>5</v>
@@ -6764,8 +6785,8 @@
       <c r="C199" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="1">
-        <v>41913</v>
+      <c r="D199" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E199" t="s">
         <v>4</v>
@@ -7599,7 +7620,7 @@
       <c r="D225" t="s">
         <v>9</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F225" t="s">
@@ -7631,8 +7652,8 @@
       <c r="D226" t="s">
         <v>19</v>
       </c>
-      <c r="E226" s="2">
-        <v>43954</v>
+      <c r="E226" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F226" t="s">
         <v>27</v>
@@ -7663,8 +7684,8 @@
       <c r="D227" t="s">
         <v>9</v>
       </c>
-      <c r="E227" s="2">
-        <v>43954</v>
+      <c r="E227" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F227" t="s">
         <v>5</v>
@@ -7695,7 +7716,7 @@
       <c r="D228" t="s">
         <v>3</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F228" t="s">
@@ -7727,7 +7748,7 @@
       <c r="D229" t="s">
         <v>3</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F229" t="s">
@@ -7759,8 +7780,8 @@
       <c r="D230" t="s">
         <v>23</v>
       </c>
-      <c r="E230" s="2">
-        <v>43954</v>
+      <c r="E230" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F230" t="s">
         <v>27</v>
@@ -7823,8 +7844,8 @@
       <c r="D232" t="s">
         <v>20</v>
       </c>
-      <c r="E232" s="2">
-        <v>44144</v>
+      <c r="E232" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F232" t="s">
         <v>27</v>
@@ -7855,8 +7876,8 @@
       <c r="D233" t="s">
         <v>3</v>
       </c>
-      <c r="E233" s="2">
-        <v>43954</v>
+      <c r="E233" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F233" t="s">
         <v>5</v>
@@ -7887,8 +7908,8 @@
       <c r="D234" t="s">
         <v>3</v>
       </c>
-      <c r="E234" s="2">
-        <v>43954</v>
+      <c r="E234" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F234" t="s">
         <v>5</v>
@@ -7919,8 +7940,8 @@
       <c r="D235" t="s">
         <v>14</v>
       </c>
-      <c r="E235" s="2">
-        <v>44144</v>
+      <c r="E235" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F235" t="s">
         <v>29</v>
@@ -7983,8 +8004,8 @@
       <c r="D237" t="s">
         <v>19</v>
       </c>
-      <c r="E237" s="2">
-        <v>43954</v>
+      <c r="E237" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F237" t="s">
         <v>27</v>
@@ -8111,8 +8132,8 @@
       <c r="D241" t="s">
         <v>9</v>
       </c>
-      <c r="E241" s="2">
-        <v>43954</v>
+      <c r="E241" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F241" t="s">
         <v>27</v>
@@ -8143,8 +8164,8 @@
       <c r="D242" t="s">
         <v>9</v>
       </c>
-      <c r="E242" s="2">
-        <v>43954</v>
+      <c r="E242" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F242" t="s">
         <v>5</v>
@@ -8207,8 +8228,8 @@
       <c r="D244" t="s">
         <v>19</v>
       </c>
-      <c r="E244" s="2">
-        <v>44049</v>
+      <c r="E244" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F244" t="s">
         <v>5</v>
@@ -8239,8 +8260,8 @@
       <c r="D245" t="s">
         <v>9</v>
       </c>
-      <c r="E245" s="2">
-        <v>43954</v>
+      <c r="E245" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F245" t="s">
         <v>27</v>
@@ -8271,8 +8292,8 @@
       <c r="D246" t="s">
         <v>3</v>
       </c>
-      <c r="E246" s="1">
-        <v>41974</v>
+      <c r="E246" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F246" t="s">
         <v>27</v>
@@ -8303,8 +8324,8 @@
       <c r="D247" t="s">
         <v>3</v>
       </c>
-      <c r="E247" s="2">
-        <v>44144</v>
+      <c r="E247" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F247" t="s">
         <v>5</v>
@@ -8335,8 +8356,8 @@
       <c r="D248" t="s">
         <v>14</v>
       </c>
-      <c r="E248" s="2">
-        <v>44049</v>
+      <c r="E248" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F248" t="s">
         <v>27</v>
@@ -8367,8 +8388,8 @@
       <c r="D249" t="s">
         <v>3</v>
       </c>
-      <c r="E249" s="2">
-        <v>44144</v>
+      <c r="E249" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F249" t="s">
         <v>27</v>
@@ -8399,8 +8420,8 @@
       <c r="D250" t="s">
         <v>24</v>
       </c>
-      <c r="E250" s="2">
-        <v>44049</v>
+      <c r="E250" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F250" t="s">
         <v>27</v>
@@ -8431,8 +8452,8 @@
       <c r="D251" t="s">
         <v>9</v>
       </c>
-      <c r="E251" s="2">
-        <v>43954</v>
+      <c r="E251" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F251" t="s">
         <v>27</v>
@@ -8623,8 +8644,8 @@
       <c r="D257" t="s">
         <v>3</v>
       </c>
-      <c r="E257" s="2">
-        <v>44049</v>
+      <c r="E257" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F257" t="s">
         <v>27</v>
@@ -8687,8 +8708,8 @@
       <c r="D259" t="s">
         <v>9</v>
       </c>
-      <c r="E259" s="2">
-        <v>43954</v>
+      <c r="E259" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F259" t="s">
         <v>27</v>
@@ -8719,8 +8740,8 @@
       <c r="D260" t="s">
         <v>3</v>
       </c>
-      <c r="E260" s="2">
-        <v>44049</v>
+      <c r="E260" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F260" t="s">
         <v>27</v>
@@ -8751,8 +8772,8 @@
       <c r="D261" t="s">
         <v>3</v>
       </c>
-      <c r="E261" s="2">
-        <v>43954</v>
+      <c r="E261" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F261" t="s">
         <v>5</v>
@@ -8783,8 +8804,8 @@
       <c r="D262" t="s">
         <v>19</v>
       </c>
-      <c r="E262" s="2">
-        <v>43954</v>
+      <c r="E262" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F262" t="s">
         <v>5</v>
@@ -8815,8 +8836,8 @@
       <c r="D263" t="s">
         <v>19</v>
       </c>
-      <c r="E263" s="1">
-        <v>41974</v>
+      <c r="E263" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F263" t="s">
         <v>27</v>
@@ -8943,8 +8964,8 @@
       <c r="D267" t="s">
         <v>24</v>
       </c>
-      <c r="E267" s="2">
-        <v>44144</v>
+      <c r="E267" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F267" t="s">
         <v>27</v>
@@ -8975,8 +8996,8 @@
       <c r="D268" t="s">
         <v>3</v>
       </c>
-      <c r="E268" s="2">
-        <v>43954</v>
+      <c r="E268" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F268" t="s">
         <v>27</v>
@@ -9103,8 +9124,8 @@
       <c r="D272" t="s">
         <v>3</v>
       </c>
-      <c r="E272" s="2">
-        <v>44049</v>
+      <c r="E272" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F272" t="s">
         <v>27</v>
@@ -9214,9 +9235,6 @@
       <c r="I275" t="s">
         <v>11</v>
       </c>
-      <c r="J275" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
@@ -9231,8 +9249,8 @@
       <c r="D276" t="s">
         <v>3</v>
       </c>
-      <c r="E276" s="2">
-        <v>43954</v>
+      <c r="E276" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F276" t="s">
         <v>27</v>
@@ -9245,9 +9263,6 @@
       </c>
       <c r="I276" t="s">
         <v>21</v>
-      </c>
-      <c r="J276" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -9263,8 +9278,8 @@
       <c r="D277" t="s">
         <v>19</v>
       </c>
-      <c r="E277" s="2">
-        <v>44144</v>
+      <c r="E277" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F277" t="s">
         <v>27</v>
@@ -9295,8 +9310,8 @@
       <c r="D278" t="s">
         <v>19</v>
       </c>
-      <c r="E278" s="2">
-        <v>44049</v>
+      <c r="E278" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F278" t="s">
         <v>27</v>
@@ -9324,11 +9339,11 @@
       <c r="C279" t="s">
         <v>13</v>
       </c>
-      <c r="D279" s="1">
-        <v>41913</v>
-      </c>
-      <c r="E279" s="2">
-        <v>44049</v>
+      <c r="D279" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F279" t="s">
         <v>27</v>
@@ -9391,8 +9406,8 @@
       <c r="D281" t="s">
         <v>23</v>
       </c>
-      <c r="E281" s="2">
-        <v>44049</v>
+      <c r="E281" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F281" t="s">
         <v>27</v>
@@ -9423,8 +9438,8 @@
       <c r="D282" t="s">
         <v>23</v>
       </c>
-      <c r="E282" s="2">
-        <v>44049</v>
+      <c r="E282" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F282" t="s">
         <v>27</v>
@@ -9551,8 +9566,8 @@
       <c r="D286" t="s">
         <v>3</v>
       </c>
-      <c r="E286" s="2">
-        <v>43954</v>
+      <c r="E286" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F286" t="s">
         <v>5</v>
@@ -9583,8 +9598,8 @@
       <c r="D287" t="s">
         <v>3</v>
       </c>
-      <c r="E287" s="2">
-        <v>43954</v>
+      <c r="E287" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F287" t="s">
         <v>5</v>
@@ -9604,5 +9619,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>